--- a/pocketetris_cost.xlsx
+++ b/pocketetris_cost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abf6305f53ab02cb/tinytetris/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dombeef\Documents\GitHub\pockeTETRIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>items</t>
   </si>
@@ -77,13 +77,31 @@
     <t>https://www.amazon.com/Energizer-2032BP-4-Volt-Lithium-Battery/dp/B00D8P5T0U/ref=sr_1_4_s_it?s=hpc&amp;ie=UTF8&amp;qid=1495643238&amp;sr=1-4&amp;keywords=CR2032&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ATMEL-ATTINY85-20PU-ATTINY-20MHZ-pieces/dp/B00FIVZUW4/ref=sr_1_1?s=industrial&amp;ie=UTF8&amp;qid=1495643287&amp;sr=1-1&amp;keywords=attiny85+10</t>
-  </si>
-  <si>
     <t>cost per unit</t>
   </si>
   <si>
     <t>https://www.amazon.com/CO-RODE-Tact-Button-Switch-6x6x5mm/dp/B00W0YUV1W/ref=sr_1_1?ie=UTF8&amp;qid=1495643478&amp;sr=8-1&amp;keywords=push+button</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Original-Atmel-Dip-8-ATTINY85-20PU-Tiny85-20Pu/dp/B06W9JBJJ6/ref=sr_1_3?keywords=ATTINY85-20PU&amp;qid=1559072334&amp;s=industrial&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATTINY85-20PU/735469?s=N4IgTCBcDaIIIBUEEkByBNAHAVgLRgAYAFAVRAF0BfIA</t>
+  </si>
+  <si>
+    <t>pcbway</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/zeus-battery-products/CR2032/9828855</t>
+  </si>
+  <si>
+    <t>through better bulk stuff</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Coin-Cell-Retainer-CR2032-2032-2020_62430101585.html?spm=a2700.galleryofferlist.normal_offer.d_title.325a74767hOfJ0</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32717542815.html?spm=a2g0o.productlist.0.0.7f83478d8XIU9n&amp;algo_pvid=723a4dca-2182-4245-9210-14c7e954f2c4&amp;algo_expid=723a4dca-2182-4245-9210-14c7e954f2c4-0&amp;btsid=0bb0623f16054782369144782eefb8&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -466,24 +484,24 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10.98</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E8" si="0">D2/B2</f>
-        <v>2</v>
+        <f t="shared" ref="E2:E5" si="0">D2/B2</f>
+        <v>2.1960000000000002</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F8" si="1">B2/C2</f>
-        <v>10</v>
+        <f t="shared" ref="F2:F5" si="1">B2/C2</f>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,18 +607,18 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="E7">
         <f>D7/B7</f>
-        <v>0.05</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F7">
         <f>B7/C7</f>
         <v>33.333333333333336</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,11 +632,11 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>16.989999999999998</v>
+        <v>14.99</v>
       </c>
       <c r="E8">
         <f>D8/B8</f>
-        <v>8.4949999999999992</v>
+        <v>7.4950000000000001</v>
       </c>
       <c r="F8">
         <f>B8/C8</f>
@@ -656,11 +674,240 @@
       </c>
       <c r="D13" s="1">
         <f>SUM(D2:D10)</f>
-        <v>56.42</v>
+        <v>47.2</v>
       </c>
       <c r="E13" s="1">
         <f>SUM(E2:E12)</f>
-        <v>14.478333333333332</v>
+        <v>13.692333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="2">D16/B16</f>
+        <v>1.2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16:F19" si="3">B16/C16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.33</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.33</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <f>D18/B18</f>
+        <v>0.12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="4">D19/B19</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>D20/B20</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>B20/C20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <f>D21/B21</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <f>B21/C21</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E22">
+        <f>D22/B22</f>
+        <v>1.86</v>
+      </c>
+      <c r="F22">
+        <f>B22/C22</f>
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>D23/B23</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>B23/C23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D16:D24)</f>
+        <v>85.63</v>
+      </c>
+      <c r="E27" s="1">
+        <f>SUM(E16:E26)</f>
+        <v>4.0350000000000001</v>
       </c>
     </row>
   </sheetData>
